--- a/medicine/Mort/Cimetière_Mitinskoïe/Cimetière_Mitinskoïe.xlsx
+++ b/medicine/Mort/Cimetière_Mitinskoïe/Cimetière_Mitinskoïe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mitinsko%C3%AFe</t>
+          <t>Cimetière_Mitinskoïe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Mitinskoïe (ou cimetière de Mitino, en russe : Ми́тинское кла́дбище) est un cimetière de Moscou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mitinsko%C3%AFe</t>
+          <t>Cimetière_Mitinskoïe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé dans le District administratif nord-ouest.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mitinsko%C3%AFe</t>
+          <t>Cimetière_Mitinskoïe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mitinsko%C3%AFe</t>
+          <t>Cimetière_Mitinskoïe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Mitinskoïe est ouvert le 15 septembre 1978, faisant disparaitre les villages de Dudino et d'Alekseevskoye-Pushkino qui étaient situés sur le territoire alloué aux sépultures.
 Une église orthodoxe russe, construite en 1998, est située sur son terrain et a été visitée à plusieurs reprises par le patriarche Alexis II. 
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Mitinsko%C3%AFe</t>
+          <t>Cimetière_Mitinskoïe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,7 +620,9 @@
           <t>Personnalités inhumées au cimetière Mitinskoïe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alexandre Abramski (1898-1985), compositeur
 Viktor Mikhaïlovitch Adamishine (ru) (1962-1995), capitaine de police, héros de la fédération de Russie pour avoir couvert la retraite d'un groupe de combat russe lors du massacre de Samachki
